--- a/PLP/PLP Documents/ProjectTracking/Time Sheets/Timesheet_Balaji.xlsx
+++ b/PLP/PLP Documents/ProjectTracking/Time Sheets/Timesheet_Balaji.xlsx
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="134">
   <si>
     <t>Total</t>
   </si>
@@ -472,9 +472,6 @@
     <t>L1 preparation</t>
   </si>
   <si>
-    <t>Timesheet_75891</t>
-  </si>
-  <si>
     <t>August - September</t>
   </si>
   <si>
@@ -484,7 +481,9 @@
     <t>Thota Balaji Kumar</t>
   </si>
   <si>
-    <t>Employee Details</t>
+    <t xml:space="preserve">Expense Management System                           
+Expense Management System                           
+Expense  Management </t>
   </si>
 </sst>
 </file>
@@ -1235,7 +1234,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
@@ -1456,6 +1455,10 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2125,7 +2128,7 @@
   <dimension ref="A1:AJ511"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="12.75" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -2155,8 +2158,8 @@
       <c r="A1" s="10"/>
       <c r="B1" s="12"/>
       <c r="C1" s="91"/>
-      <c r="D1" s="94" t="s">
-        <v>134</v>
+      <c r="D1" s="109" t="s">
+        <v>133</v>
       </c>
       <c r="E1" s="94"/>
       <c r="F1" s="94"/>
@@ -2196,17 +2199,15 @@
         <v>107</v>
       </c>
       <c r="B2" s="66" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C2" s="12"/>
-      <c r="D2" s="82" t="s">
-        <v>130</v>
-      </c>
+      <c r="D2" s="82"/>
       <c r="E2" s="66">
         <v>153232</v>
       </c>
       <c r="F2" s="66" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G2" s="46"/>
       <c r="H2" s="46"/>
@@ -2237,7 +2238,7 @@
         <v>2</v>
       </c>
       <c r="AG2" s="47" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AH2" s="47"/>
       <c r="AI2" s="49">
@@ -38797,6 +38798,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CB664C91369D984991AEE386D876C869" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a51899a532c37e5ca61817437f4815f9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f2f9e500-2a4f-403e-abb1-514215aa6ea6" xmlns:ns3="952a6df7-b138-4f89-9bc4-e7a874ea3254" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="45d205d1640a34948cbc94912e7cd74a" ns2:_="" ns3:_="">
     <xsd:import namespace="f2f9e500-2a4f-403e-abb1-514215aa6ea6"/>
@@ -38966,15 +38976,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95452CED-D397-4E26-AEF7-4EE457526AE5}">
   <ds:schemaRefs>
@@ -38993,6 +38994,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA1B4EF1-886D-4F1E-ADA1-4B2EF58A5B87}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{48B3878E-BF18-4A7A-AC52-778A9A934D60}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -39009,12 +39018,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA1B4EF1-886D-4F1E-ADA1-4B2EF58A5B87}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>